--- a/biology/Microbiologie/Sphingobacteriales/Sphingobacteriales.xlsx
+++ b/biology/Microbiologie/Sphingobacteriales/Sphingobacteriales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Sphingobacteriales appartient au phylum des Bacteroidota et contient deux familles de bactéries environnementales dont les Sphingobacteriacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Sphingobacteriales est décrit en 2012 par Kämpfer[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Sphingobacteriales est décrit en 2012 par Kämpfer,.
 </t>
         </is>
       </c>
@@ -544,14 +558,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de la classe Sphongobacteriales est la suivante :  N.L. neut. n. Sphingobacterium, genre type de l'ordre; N.L. neut. pl. n. suff. -ales, suffixe définissant un ordre; N.L. neut. pl. n. Sphingobacteriales, L'ordre de Sphingobacterium[3].
-Liste des familles
-Selon la LPSN  (18 février 2023)[4], la classe Sphingobacteriales comprend deux familles :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de la classe Sphongobacteriales est la suivante :  N.L. neut. n. Sphingobacterium, genre type de l'ordre; N.L. neut. pl. n. suff. -ales, suffixe définissant un ordre; N.L. neut. pl. n. Sphingobacteriales, L'ordre de Sphingobacterium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (18 février 2023), la classe Sphingobacteriales comprend deux familles :
 famille des Sphingobacteriaceae
-famille des Filobacteriaceae
-Anciennes familles
-La famille Chitinophagaceae placée dans cet ordre en 2011[3] a été élevée au rang de classe en 2020 par le sous-comité taxonomique des Bacteroidetes aérobies[5].
+famille des Filobacteriaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anciennes familles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Chitinophagaceae placée dans cet ordre en 2011 a été élevée au rang de classe en 2020 par le sous-comité taxonomique des Bacteroidetes aérobies.
 </t>
         </is>
       </c>
